--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3357F815-1069-45B3-88F2-6B8B6E2682BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47061BA4-C036-4977-9674-AC0F8EAA17EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t xml:space="preserve"> ใบกำกับภาษีอย่างย่อ/แยกหน้าเหมือนออนไล</t>
+  </si>
+  <si>
+    <t>shopee</t>
+  </si>
+  <si>
+    <t>import ไฟล์เข้า แล้วปอปหน้าจอให้เลือกรายการ ไปทำใบตัดรับชำระ โดย map กับ เลขใบสั่งซื้อ แสดงตัวเลข และยอด diff</t>
+  </si>
+  <si>
+    <t>lazada เหมือนกัน แค่ระบบส่งมาหลาย row ต่อ 1 po ใช้ยอดรวมจากหลายรายงานเทียบกับ invoice ในระบบ</t>
+  </si>
+  <si>
+    <t>เอาข้อมูลจากไฟล์เทียบแสดงให้ดูเฉยๆ ไม่ต้องเก็บเข้า db</t>
+  </si>
+  <si>
+    <t>DEP-003 พนักงานขับรถ</t>
+  </si>
+  <si>
+    <t>ใบกำกับ,ส่งของ,ออนไล</t>
   </si>
 </sst>
 </file>
@@ -209,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -235,13 +259,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -260,6 +287,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>18029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>36668</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>132620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE15484-8D26-439F-A6E5-2B7702B3A99B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7153275" y="8228579"/>
+          <a:ext cx="9571193" cy="4877091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -525,47 +601,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C24"/>
+  <dimension ref="B1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="85" style="2" customWidth="1"/>
-    <col min="3" max="3" width="68.85546875" customWidth="1"/>
+    <col min="3" max="3" width="84.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:4">
       <c r="B1" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:4">
       <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="D2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="30">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="16.5" customHeight="1"/>
+    <row r="5" spans="2:4" ht="30">
       <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="30">
+    <row r="6" spans="2:4" ht="30">
       <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
@@ -573,20 +652,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:4">
       <c r="B7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="9" spans="2:3">
+      <c r="D7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:4">
       <c r="B10" s="2" t="s">
         <v>33</v>
       </c>
@@ -594,56 +676,65 @@
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="30">
+    <row r="11" spans="2:4" ht="30">
       <c r="B11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="2:3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:4">
       <c r="B13" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:4">
       <c r="B15" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:4">
       <c r="B16" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="2:3">
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="45">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="45">
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="30">
+    <row r="19" spans="2:4" ht="30">
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:4">
       <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
@@ -651,34 +742,69 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:4">
       <c r="B21" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="2:3">
+      <c r="D21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
       <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:4">
       <c r="B23" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="24" spans="2:3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
       <c r="B24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="27" spans="2:4">
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="C31" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47061BA4-C036-4977-9674-AC0F8EAA17EF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AE8ED-05C8-44BF-8265-C4F3AC887899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Guarantee" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Guarantee" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -104,9 +106,6 @@
     <t>ราคาขายจริง</t>
   </si>
   <si>
-    <t xml:space="preserve"> กำหนด%ในการกำหนดราคา ขาย</t>
-  </si>
-  <si>
     <t xml:space="preserve">  งานแมส/สรุป</t>
   </si>
   <si>
@@ -204,13 +203,82 @@
   </si>
   <si>
     <t>ใบกำกับ,ส่งของ,ออนไล</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> กำหนด % ในการกำหนดราคา ขาย</t>
+  </si>
+  <si>
+    <t>หน้าแสดงใบสั่งจอง/ใบสั่งขาย/ยืมสินค้า/ใบกำกับ/กำบกับออนไลน์/ใบส่งของ ให้ดึง เลขคำสั่งซื้อมาแสดง</t>
+  </si>
+  <si>
+    <t>ใบกำกับภาษี/ใบเสร็จ เพิ่มฟอร์มของบริษัท ให้ไปเลือกตอนปริ้น</t>
+  </si>
+  <si>
+    <t>กำหนดราคาจากบริษัท แม่/ลูก1/ลูก2 เวลาลูก2 มาเปิดใบสั่งขายให้ดึงราคาจากแจ้ง จากแม่ หรือเกณฑ์ราคาแม่</t>
+  </si>
+  <si>
+    <t>ใบกำกับภาษีอย่างย่อ/แยกหน้าเหมือนออนไลท์</t>
+  </si>
+  <si>
+    <t>งานแมส/สรุป</t>
+  </si>
+  <si>
+    <t>Import /export product  price จาก sku ซัพ ครั้งแรก อยากให้สามารถ export มา แล้วใส่แก้sku sup เข้าไปได้</t>
+  </si>
+  <si>
+    <t>โปรโมชั่นซื้อ/ขาย ค้นหาลูกค้า เพิ่ม column กลุ่มลูกค้าให้ค้นหาและเลือกทั้งหมดได้ และ clone โปรเดิมได้</t>
+  </si>
+  <si>
+    <t>จำนวนวันประกัน ไป แสดง หน้า สินค้า / ระบบแจ้งราคา /กำหนดราคาสินค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopee/lazada </t>
+  </si>
+  <si>
+    <t>Mandays/1000 B</t>
+  </si>
+  <si>
+    <t>เพิ่มรายละเอียดโปร ในหน้าแจ้งราคาอยู่หลัง promotion</t>
+  </si>
+  <si>
+    <t>ค้นหาประเภทเอกสาร ให้เลือกเลขคำสั่งซื้อได้</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ประวัติซื้อขายถ้าบริษัทไหน เป็นบริษัทแม่/ลูกกันดึงมาด้วย</t>
+  </si>
+  <si>
+    <t>ในหน้าแสดงaccount/contact ให้แสดงบริษัทแม่ด้วย</t>
+  </si>
+  <si>
+    <t>Total Mandays</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Mandays/1500 B</t>
+  </si>
+  <si>
+    <t>ประวัติซื้อขายถ้าบริษัทไหน เป็นบริษัทแม่/ลูกกันดึงมาด้วย</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,8 +294,23 @@
       <charset val="222"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,8 +328,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -254,12 +342,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -271,9 +376,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -295,13 +444,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>876300</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>18029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>36668</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>132620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -600,206 +749,512 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91D7761-88E5-43FB-8DA4-C7F21D6E3FA8}">
+  <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="85" style="2" customWidth="1"/>
+    <col min="1" max="2" width="68.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45">
+      <c r="A18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="30">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2"/>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2"/>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2"/>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="85" style="5" customWidth="1"/>
     <col min="3" max="3" width="84.140625" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4">
-      <c r="B1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="2:4">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1">
+      <c r="B4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.5" hidden="1" customHeight="1"/>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" hidden="1">
+      <c r="B7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
         <v>44</v>
       </c>
-      <c r="D2">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1"/>
+    <row r="10" spans="1:4" hidden="1">
+      <c r="B10" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1">
+      <c r="B11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30">
+      <c r="A12">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="2:4">
-      <c r="B3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="16.5" customHeight="1"/>
-    <row r="5" spans="2:4" ht="30">
-      <c r="B5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="30">
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" ht="30">
-      <c r="B11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1"/>
+    <row r="16" spans="1:4" hidden="1">
+      <c r="B16" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>8</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:4" ht="45">
-      <c r="B18" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="30">
-      <c r="B19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="45" hidden="1">
+      <c r="B19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="30">
+      <c r="A20">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>12</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>13</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>52</v>
       </c>
-      <c r="D21">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>53</v>
-      </c>
       <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4">
-      <c r="B24" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>14</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>15</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30">
+      <c r="B26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="C27" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="C29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="C30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="C31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -808,7 +1263,212 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="8"/>
+    <col min="2" max="2" width="63.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="9">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
+      <c r="A5" s="9">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="9">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="9">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
+      <c r="A10" s="9">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30">
+      <c r="A11" s="9">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="9">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="30">
+      <c r="A13" s="9">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="17">
+        <f>SUM(C2:C15)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="18">
+        <f>C16*1500</f>
+        <v>24000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830F2E71-051B-412D-B14A-7653E936C66C}">
   <dimension ref="A1:A24"/>
   <sheetViews>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A69AE8ED-05C8-44BF-8265-C4F3AC887899}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6597D0D-15C3-4863-BAC4-89AEB623E5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,9 +276,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +307,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -361,10 +368,10 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -400,23 +407,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -753,7 +766,7 @@
   <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,7 +833,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B10" t="s">
@@ -839,7 +852,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
     </row>
@@ -971,6 +984,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -979,7 +993,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,7 +1282,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1315,7 +1329,7 @@
       <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="15">
@@ -1337,7 +1351,7 @@
       <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>77</v>
       </c>
       <c r="C6" s="15">
@@ -1370,7 +1384,7 @@
       <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C9" s="15">
@@ -1381,7 +1395,7 @@
       <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="20" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="15">
@@ -1436,7 +1450,7 @@
       <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="20" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="15">

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6597D0D-15C3-4863-BAC4-89AEB623E5DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B88AC-2A2F-4D9C-A0F9-7DF7D0AEAE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1279,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1292,7 +1292,7 @@
     <col min="3" max="3" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:11">
       <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:11">
       <c r="A2" s="9">
         <v>1</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
+    <row r="3" spans="1:11" ht="30">
       <c r="A3" s="9">
         <v>2</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:11">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:11" ht="30">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1347,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:11">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:11">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1369,18 +1369,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:11">
       <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="20" t="s">
         <v>63</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:11">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30">
+    <row r="10" spans="1:11" ht="30">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30">
+    <row r="11" spans="1:11" ht="30">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:11">
       <c r="A12" s="9">
         <v>11</v>
       </c>
@@ -1424,7 +1424,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:11" ht="30">
       <c r="A13" s="9">
         <v>12</v>
       </c>
@@ -1434,8 +1434,14 @@
       <c r="C13" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="J13">
+        <v>2000</v>
+      </c>
+      <c r="K13">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="9">
         <v>13</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:11">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1457,7 +1463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:11">
       <c r="A16" s="9"/>
       <c r="B16" s="16" t="s">
         <v>78</v>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6B88AC-2A2F-4D9C-A0F9-7DF7D0AEAE24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6162579-47BD-4F22-9612-95CD02E94B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1281,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1492,8 +1492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830F2E71-051B-412D-B14A-7653E936C66C}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6162579-47BD-4F22-9612-95CD02E94B7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37D809-19F2-46FD-A01D-AC8B8849DEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>ประวัติซื้อขายถ้าบริษัทไหน เป็นบริษัทแม่/ลูกกันดึงมาด้วย</t>
+  </si>
+  <si>
+    <t>Import product เพื่อ update sku</t>
   </si>
 </sst>
 </file>
@@ -278,7 +281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +315,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -371,7 +381,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -429,6 +439,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -489,6 +502,55 @@
         <a:xfrm>
           <a:off x="7153275" y="8228579"/>
           <a:ext cx="9571193" cy="4877091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361026</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>160337</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D00860-81A3-4C78-A8D5-7C23A8745D92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="4705351"/>
+          <a:ext cx="5580726" cy="4408486"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,7 +828,7 @@
   <dimension ref="A2:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -993,7 +1055,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1279,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1292,7 +1354,7 @@
     <col min="3" max="3" width="15.42578125" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
@@ -1303,29 +1365,29 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:3">
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="21" t="s">
         <v>66</v>
       </c>
       <c r="C2" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="21" t="s">
         <v>67</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:3">
       <c r="A4" s="9">
         <v>3</v>
       </c>
@@ -1336,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="9">
         <v>4</v>
       </c>
@@ -1347,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:3">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -1358,7 +1420,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:3">
       <c r="A7" s="9">
         <v>6</v>
       </c>
@@ -1369,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:3">
       <c r="A8" s="9">
         <v>7</v>
       </c>
@@ -1380,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:3">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -1391,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30">
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="9">
         <v>9</v>
       </c>
@@ -1402,7 +1464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="9">
         <v>10</v>
       </c>
@@ -1413,46 +1475,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:3">
       <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="21" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="15">
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="21" t="s">
         <v>69</v>
       </c>
       <c r="C13" s="15">
         <v>0</v>
       </c>
-      <c r="J13">
-        <v>2000</v>
-      </c>
-      <c r="K13">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:3">
       <c r="A15" s="9">
         <v>14</v>
       </c>
@@ -1463,7 +1519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:3">
       <c r="A16" s="9"/>
       <c r="B16" s="16" t="s">
         <v>78</v>
@@ -1483,8 +1539,14 @@
         <v>24000</v>
       </c>
     </row>
+    <row r="19" spans="1:3">
+      <c r="B19" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1492,7 +1554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830F2E71-051B-412D-B14A-7653E936C66C}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B37D809-19F2-46FD-A01D-AC8B8849DEC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D4393-305E-4CD8-9A69-6416DF90E14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91D7761-88E5-43FB-8DA4-C7F21D6E3FA8}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08D4393-305E-4CD8-9A69-6416DF90E14F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F8965-665A-481F-9CCA-5BE028AB1FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Guarantee" sheetId="2" r:id="rId4"/>
+    <sheet name="บันทึกส่งของ2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -272,6 +273,9 @@
   </si>
   <si>
     <t>Import product เพื่อ update sku</t>
+  </si>
+  <si>
+    <t>4500 บาท</t>
   </si>
 </sst>
 </file>
@@ -551,6 +555,55 @@
         <a:xfrm>
           <a:off x="647700" y="4705351"/>
           <a:ext cx="5580726" cy="4408486"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>255789</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>541921</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8D2D8B2-86D3-4529-BF40-6A47F9660414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="255789" y="561975"/>
+          <a:ext cx="7601332" cy="5761864"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F42BAA-8453-4C09-A632-481F48F1E29B}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1686,4 +1739,25 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C1637A-66AB-4C65-B763-12ADE54EF896}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0F8965-665A-481F-9CCA-5BE028AB1FEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25526507-72F8-4AE2-8EBF-5FA9CD0E4468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -276,6 +276,42 @@
   </si>
   <si>
     <t>4500 บาท</t>
+  </si>
+  <si>
+    <t>หน้าจอเพิ่มงานส่งของ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. เลขที่ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.วันที่ </t>
+  </si>
+  <si>
+    <t>3. รหัสลูกค้า</t>
+  </si>
+  <si>
+    <t>4. ชื่อ /ชื่อรายการ</t>
+  </si>
+  <si>
+    <t>5. ยอดรวม</t>
+  </si>
+  <si>
+    <t>6.เลขที่ใบเสร็จ</t>
+  </si>
+  <si>
+    <t>7. เลขที่บิล</t>
+  </si>
+  <si>
+    <t>8.ผู้รับผิดชอบ</t>
+  </si>
+  <si>
+    <t>9. หมายเหตุ</t>
+  </si>
+  <si>
+    <t>พวกนี้ จะมีหรือไม่มีช่องไหนก็ได้เลยครับ</t>
+  </si>
+  <si>
+    <t>ถ้ามีรหัสลูกค้า ให้ดึงมา ถ้าไม่มี ให้ พิมพ์ชื่อ/ชื่อรายการไปเลยครับ</t>
   </si>
 </sst>
 </file>
@@ -880,7 +916,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91D7761-88E5-43FB-8DA4-C7F21D6E3FA8}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1743,17 +1779,75 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C1637A-66AB-4C65-B763-12ADE54EF896}">
-  <dimension ref="A2"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>83</v>
+      </c>
+      <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="O3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="O4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="O5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="O6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="O7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="O8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="O9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="O10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="O11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="O12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="O13" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25526507-72F8-4AE2-8EBF-5FA9CD0E4468}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690160AC-B7C3-4CB7-B4A5-89F605038E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="NewReq" sheetId="4" r:id="rId3"/>
     <sheet name="Guarantee" sheetId="2" r:id="rId4"/>
     <sheet name="บันทึกส่งของ2" sheetId="5" r:id="rId5"/>
+    <sheet name="SN" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -312,6 +313,27 @@
   </si>
   <si>
     <t>ถ้ามีรหัสลูกค้า ให้ดึงมา ถ้าไม่มี ให้ พิมพ์ชื่อ/ชื่อรายการไปเลยครับ</t>
+  </si>
+  <si>
+    <t>เพิ่มช่องสำหรับระบุ code ทำ SN ในหน้า supplier</t>
+  </si>
+  <si>
+    <t>เพิ่มช่องสำหรับระบุ code ทำ SN ในหน้า สินค้า</t>
+  </si>
+  <si>
+    <t>หน้าทำรายการกรณีไม่เปิดหน้าจอ Gen SN ให้ระบบ Autogen เลย</t>
+  </si>
+  <si>
+    <t>ดึงใบสั่งจองไปใบสั่งขาย ใบสั่งขายเลือกไปใบส่งของ/ใบกำกับภาษี/ใบกำกับภาษีอนนไลน์/อย่างย่อด้วยนะครับ</t>
+  </si>
+  <si>
+    <t>** จะ default ค่าเป็นตัวอักษรทั้งหมดหลัง "-" ของรหัสสินค้า หากไม่เจอ "-" จะใช้รหัสสินค้าเลย สามารถมาแก้ไขได้ที่หน้าข้อมูลสินค้า</t>
+  </si>
+  <si>
+    <t>เพิ่มหน้าจอสำหรับกำหนดรูปแบบ SN ของสินค้า สามารถมารถกำหนดให้ SN เริ่มต้นเลข 1 ได้</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TN2280-JP-66-02903</t>
   </si>
 </sst>
 </file>
@@ -421,7 +443,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -483,6 +505,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -640,6 +665,99 @@
         <a:xfrm>
           <a:off x="255789" y="561975"/>
           <a:ext cx="7601332" cy="5761864"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380142</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113876</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{439355B5-A7BE-452D-AE2A-42B236439126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="666750" y="1866900"/>
+          <a:ext cx="6866667" cy="3390476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>217871</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>48855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90E84F80-0815-44DD-A3AC-8A2D4FF8E307}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8134350" y="142875"/>
+          <a:ext cx="7771196" cy="4096980"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -916,7 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91D7761-88E5-43FB-8DA4-C7F21D6E3FA8}">
   <dimension ref="A2:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -1143,7 +1261,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -1433,7 +1551,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1626,6 +1744,11 @@
       <c r="C17" s="18">
         <f>C16*1500</f>
         <v>24000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="C18" s="14">
+        <v>6500</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1854,4 +1977,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5456DE9D-0800-45A5-88E9-06220B5CB648}">
+  <dimension ref="B1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/_Doc/20230208/NewReq.xlsx
+++ b/_Doc/20230208/NewReq.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{690160AC-B7C3-4CB7-B4A5-89F605038E12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49C2A541-17CD-4C85-B62F-BAA6CBB99F97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="105">
   <si>
     <t>ส่วนเพิ่ม</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t xml:space="preserve"> TN2280-JP-66-02903</t>
+  </si>
+  <si>
+    <t>ดึงใบสั่งจองไปใบสั่งขาย ใบสั่งขายเลือกไปใบส่งของ/ใบกำกับภาษี/ใบกำกับภาษีอนนไลน์/อย่างย่อ</t>
+  </si>
+  <si>
+    <t>Export สินค้าเพิ่มช่องให้นำข้อมูลไป Import ต่อได้เลย</t>
   </si>
 </sst>
 </file>
@@ -1981,10 +1987,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5456DE9D-0800-45A5-88E9-06220B5CB648}">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2027,9 +2033,44 @@
         <v>99</v>
       </c>
     </row>
-    <row r="25" spans="9:9">
+    <row r="25" spans="2:9">
       <c r="I25" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
